--- a/data/long_dif/P16-Edad-long_dif.xlsx
+++ b/data/long_dif/P16-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30,07%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,01; 32,25</t>
+          <t>18,77; 35,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,74; 41,42</t>
+          <t>22,85; 44,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 26,81</t>
+          <t>11,85; 28,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,07; 46,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,86; 21,23</t>
+          <t>11,07; 38,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 39,68</t>
+          <t>26,27; 44,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 36,19</t>
+          <t>9,1; 21,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,2; 28,61</t>
+          <t>22,05; 38,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,2; 31,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 35,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24,46; 36,46</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>17,91; 32,42</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>18,62; 30,2</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>15,18; 33,11</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,66%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>51,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>59,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,61%</t>
+          <t>45,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>50,79%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>53,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>51,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,55%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>44,19%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52,35%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>55,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>44,03%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,94; 55,97</t>
+          <t>37,31; 55,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,91; 63,86</t>
+          <t>40,11; 62,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 70,54</t>
+          <t>48,0; 68,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,9; 50,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,33; 64,14</t>
+          <t>30,23; 61,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,08; 58,81</t>
+          <t>32,64; 51,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,7; 50,62</t>
+          <t>43,38; 62,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,85; 61,44</t>
+          <t>43,27; 60,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,76; 62,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 56,43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38,06; 50,14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44,53; 59,31</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>48,96; 62,87</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33,62; 54,06</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>27,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>32,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>23,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,31%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34,66%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,74%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>20,01%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>33,41%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,24; 38,92</t>
+          <t>20,19; 36,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 25,22</t>
+          <t>9,32; 25,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 29,98</t>
+          <t>14,56; 31,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,2; 30,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,21; 40,7</t>
+          <t>18,63; 53,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,76; 26,0</t>
+          <t>16,27; 32,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,78; 31,88</t>
+          <t>23,38; 42,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 29,08</t>
+          <t>11,74; 24,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,82; 25,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21,77; 48,86</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20,54; 32,2</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 29,95</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,76; 25,5</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>24,02; 44,53</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,12; 33,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,66; 47,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 29,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 30,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 26,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,8; 23,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 29,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 35,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 24,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>58,77%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>53,62%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55,97%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25,16%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>19,27%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>27,71%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>46,74; 68,59</t>
+          <t>10,95; 37,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,2; 53,49</t>
+          <t>20,02; 48,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,75; 66,68</t>
+          <t>13,34; 28,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44,42; 61,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>44,84; 63,0</t>
+          <t>16,68; 62,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,99; 62,6</t>
+          <t>15,73; 29,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,61; 62,67</t>
+          <t>13,01; 27,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,27; 54,8</t>
+          <t>13,11; 23,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>49,74; 63,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13,09; 31,58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 29,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,12; 36,39</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 24,39</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>18,18; 47,18</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>58,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>57,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,2%</t>
+          <t>53,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>53,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>56,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53,61%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56,27%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>56,67%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,69; 31,1</t>
+          <t>44,61; 69,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,95; 36,07</t>
+          <t>30,31; 53,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,2; 31,49</t>
+          <t>48,09; 69,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 33,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,01; 34,88</t>
+          <t>13,15; 43,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,7; 33,51</t>
+          <t>45,55; 61,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,19; 29,29</t>
+          <t>44,3; 61,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>20,34; 33,13</t>
+          <t>49,37; 63,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,45; 30,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>42,93; 63,69</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>48,14; 62,63</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38,11; 54,61</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>50,16; 63,48</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>27,9; 48,87</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>41,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25,67%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23,27%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>27,27%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>33,56%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,62; 35,78</t>
+          <t>15,6; 31,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,8; 25,16</t>
+          <t>16,89; 41,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,41; 19,35</t>
+          <t>14,87; 30,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,21; 29,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,21; 23,44</t>
+          <t>20,35; 62,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,64; 22,65</t>
+          <t>17,77; 32,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,25; 30,49</t>
+          <t>20,75; 36,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,23; 22,52</t>
+          <t>19,12; 32,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,82; 19,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>17,19; 35,13</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>18,19; 28,89</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>21,16; 35,8</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>18,81; 29,37</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 47,99</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>55,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>57,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>50,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>53,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>52,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>57,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,77; 65,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>46,74; 64,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>54,53; 70,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>49,49; 62,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,01; 56,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,36; 58,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>48,88; 62,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,07; 58,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,48; 61,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>19,38%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18,12%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,77; 36,67</t>
+          <t>12,11; 25,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,5; 33,85</t>
+          <t>13,14; 25,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,06; 30,63</t>
+          <t>9,54; 18,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,88; 25,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,33; 38,72</t>
+          <t>8,38; 22,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,97; 34,44</t>
+          <t>18,1; 28,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,18; 29,0</t>
+          <t>12,32; 22,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>24,53; 34,2</t>
+          <t>13,8; 22,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>13,04; 29,31</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 24,86</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>14,39; 22,08</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 19,28</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>11,72; 22,08</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>56,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>53,7%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>56,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>55,24%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>56,94%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>53,19%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>57,18%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>54,42%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,16; 26,11</t>
+          <t>47,79; 65,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>15,97; 26,79</t>
+          <t>48,01; 66,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,88; 30,24</t>
+          <t>53,81; 68,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,8; 27,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,01; 17,59</t>
+          <t>42,25; 62,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>10,36; 18,12</t>
+          <t>49,18; 63,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>17,25; 24,57</t>
+          <t>43,68; 57,05</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,55; 20,64</t>
+          <t>46,51; 58,4</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>14,65; 22,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>44,56; 64,2</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>51,39; 62,6</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>48,36; 59,1</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>52,13; 61,92</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>47,61; 61,98</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>24,58%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>53,88%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>64,14%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>57,3%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>25,39%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>22,54%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>28,69%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>29,09%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>50,11; 64,66</t>
+          <t>18,26; 34,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>47,07; 62,71</t>
+          <t>17,9; 32,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>46,82; 60,82</t>
+          <t>18,67; 31,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>53,97; 66,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>58,31; 70,54</t>
+          <t>23,69; 43,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>51,85; 63,04</t>
+          <t>15,49; 26,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>54,7; 64,15</t>
+          <t>26,62; 38,68</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>54,83; 64,82</t>
+          <t>24,42; 35,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>50,78; 60,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>18,02; 35,25</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>18,14; 27,92</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>23,89; 33,15</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 31,39</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>22,55; 36,13</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2597,164 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>16,88; 29,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,42; 34,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>18,93; 30,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>12,78; 22,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,82; 33,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>16,17; 23,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>19,15; 28,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,8; 30,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>20,97%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>20,85%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2767,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>14,21; 29,98</t>
+          <t>14,13; 24,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>16,46; 29,71</t>
+          <t>15,47; 26,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>10,96; 20,74</t>
+          <t>16,67; 31,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,27; 19,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>9,6; 21,7</t>
+          <t>12,31; 33,12</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,71; 22,26</t>
+          <t>17,82; 28,11</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>13,14; 22,37</t>
+          <t>8,94; 17,69</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>14,58; 23,31</t>
+          <t>10,01; 17,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,74; 19,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>14,5; 30,15</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 24,67</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>13,23; 20,59</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 22,29</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>14,98; 28,93</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2845,82 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>56,31%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>53,93%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>60,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>63,65%</t>
+          <t>59,91%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>64,23%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>55,82%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>58,78%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>60,41%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>55,94%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>57,09%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2933,77 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>41,61; 58,88</t>
+          <t>50,75; 64,17</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>47,57; 63,16</t>
+          <t>48,26; 64,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>53,98; 67,98</t>
+          <t>46,68; 60,48</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>52,57; 67,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>49,61; 65,73</t>
+          <t>47,19; 68,86</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>56,18; 69,89</t>
+          <t>53,67; 66,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>49,06; 61,07</t>
+          <t>58,21; 70,63</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>51,73; 63,24</t>
+          <t>51,81; 62,66</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>57,36; 67,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>46,53; 64,71</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>54,48; 63,22</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>55,5; 64,99</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>51,83; 60,17</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>50,09; 64,8</t>
         </is>
       </c>
     </row>
@@ -2127,52 +3011,82 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>21,2%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>26,28%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +3099,160 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>21,15; 38,47</t>
+          <t>17,13; 28,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>15,78; 28,65</t>
+          <t>16,09; 31,47</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>18,06; 30,28</t>
+          <t>18,98; 30,22</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>19,81; 34,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>19,92; 35,01</t>
+          <t>13,73; 29,66</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>14,73; 26,05</t>
+          <t>12,84; 22,58</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>22,46; 33,71</t>
+          <t>18,04; 28,39</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>19,6; 29,29</t>
+          <t>23,84; 33,31</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>17,89; 26,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>15,79; 30,97</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 24,21</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>18,66; 27,7</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>23,03; 30,45</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 27,93</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>27,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +3265,164 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>13,21; 29,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>12,82; 32,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18,1; 34,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,5; 28,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>18,61; 40,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,9; 18,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>15,89; 26,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>18,9; 34,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>13,33; 22,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>48,71%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>57,04%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>53,6%</t>
+          <t>15,08%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>55,16%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>15,65%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>21,58%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +3435,77 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>46,98; 67,02</t>
+          <t>13,44; 29,1</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>45,39; 69,46</t>
+          <t>15,7; 29,18</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>44,12; 61,51</t>
+          <t>10,92; 20,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>43,41; 59,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>38,78; 58,24</t>
+          <t>12,96; 29,12</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>47,74; 64,99</t>
+          <t>9,95; 21,41</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>47,47; 60,52</t>
+          <t>9,63; 21,59</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>43,87; 59,45</t>
+          <t>11,56; 21,93</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>47,79; 61,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>14,88; 30,67</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 22,28</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>14,82; 23,44</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>12,41; 19,37</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>16,24; 27,62</t>
         </is>
       </c>
     </row>
@@ -2449,52 +3513,82 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>52,03%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>56,82%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>50,82%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>57,77%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>63,94%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>49,87%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>56,4%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>57,28%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>62,83%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>50,33%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3601,160 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>16,36; 33,74</t>
+          <t>43,03; 59,84</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>13,73; 31,11</t>
+          <t>48,36; 63,94</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>14,73; 31,26</t>
+          <t>55,02; 67,59</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>21,2; 35,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>17,28; 30,85</t>
+          <t>40,4; 61,79</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>23,32; 42,41</t>
+          <t>53,52; 68,23</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>20,21; 31,91</t>
+          <t>49,53; 65,68</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>17,75; 28,33</t>
+          <t>57,6; 70,11</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>21,98; 35,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>40,48; 59,4</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>50,4; 62,22</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>51,37; 62,59</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>58,23; 67,16</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>42,98; 57,4</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>21,28%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>23,25%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>26,11%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>28,09%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3767,77 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>17,51; 24,94</t>
+          <t>21,09; 38,99</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>20,96; 28,43</t>
+          <t>15,36; 29,1</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>16,64; 22,32</t>
+          <t>18,3; 29,25</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>15,23; 21,21</t>
+          <t>19,06; 39,47</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>15,42; 19,73</t>
+          <t>18,49; 31,44</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>19,41; 24,3</t>
+          <t>20,1; 34,66</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,67</t>
+          <t>14,38; 25,37</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>16,58; 20,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>19,97; 37,27</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>21,56; 31,92</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 29,33</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>17,38; 25,85</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>21,41; 34,86</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3845,82 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>54,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>54,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>54,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>54,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3933,164 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>50,22; 58,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>49,02; 57,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>54,24; 60,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>51,46; 57,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>51,12; 57,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>53,33; 59,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>51,79; 56,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>51,29; 56,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>54,56; 59,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>24,66%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>19,21%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +4103,1266 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,87</t>
+          <t>12,3; 25,28</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,07</t>
+          <t>14,28; 31,6</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>20,3; 25,91</t>
+          <t>18,01; 34,44</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>24,45; 30,38</t>
+          <t>12,27; 32,64</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>23,67; 29,29</t>
+          <t>13,7; 26,45</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>21,75; 26,16</t>
+          <t>17,18; 35,54</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>22,69; 27,31</t>
+          <t>7,82; 18,73</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>22,71; 26,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>9,6; 28,85</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>15,04; 23,86</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>18,34; 32,54</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>13,7; 23,07</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 26,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>58,62%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>56,24%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>53,71%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>55,89%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>50,88%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>49,76%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>58,22%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>52,49%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>54,29%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>52,54%</t>
+        </is>
+      </c>
+      <c r="O46" s="2" t="inlineStr">
+        <is>
+          <t>56,24%</t>
+        </is>
+      </c>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>53,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>49,39; 68,58</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>46,08; 66,83</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>44,5; 62,39</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>42,38; 67,23</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>41,68; 59,08</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>41,01; 58,54</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>50,32; 66,32</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>38,06; 66,23</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>47,66; 60,4</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>44,73; 59,11</t>
+        </is>
+      </c>
+      <c r="O47" s="2" t="inlineStr">
+        <is>
+          <t>50,07; 61,94</t>
+        </is>
+      </c>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>43,1; 62,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>22,96%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>22,33%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>23,42%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>29,29%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>29,39%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>30,78%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>23,55%</t>
+        </is>
+      </c>
+      <c r="O48" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>27,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 31,45</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>14,9; 31,05</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>14,81; 31,22</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 35,93</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>22,09; 37,96</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>18,06; 32,65</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>21,85; 37,55</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>17,65; 45,06</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>21,08; 32,43</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>18,09; 29,01</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 32,2</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>20,04; 38,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>19,78%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>20,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 23,36</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 28,38</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 22,21</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 29,18</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>20,12; 25,44</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 20,72</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>15,39; 19,95</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>16,66; 23,7</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 23,46</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>18,72; 23,34</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>16,54; 20,41</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 24,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>55,53%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>53,38%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>57,94%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>48,55%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>54,28%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>54,67%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>56,63%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>52,08%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>54,89%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>54,04%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>57,27%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>50,32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>51,79; 59,45</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>49,23; 57,91</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>54,32; 61,29</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>41,57; 53,7</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>50,89; 57,77</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>51,19; 57,99</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>53,77; 59,73</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>47,62; 56,31</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>52,24; 57,21</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>51,49; 56,67</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>55,05; 59,54</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>46,67; 53,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>29,73%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>28,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 27,57</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 25,81</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>20,37; 25,91</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>24,78; 35,79</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>20,56; 26,02</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 30,72</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>23,27; 28,37</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 31,9</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>21,76; 25,93</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>23,0; 27,29</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 26,27</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 32,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P16-Edad-long_dif.xlsx
+++ b/data/long_dif/P16-Edad-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -693,7 +693,7 @@
         <v>0.1813987027619103</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0</v>
+        <v>0.3020112196700563</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2276803303671235</v>
@@ -708,7 +708,7 @@
         <v>0.3010096291901443</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0</v>
+        <v>0.2480618026932797</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>0.2317080631544663</v>
@@ -723,7 +723,7 @@
         <v>0.2408299871085999</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0</v>
+        <v>0.274530342141738</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>0.2295793182246075</v>
@@ -745,7 +745,9 @@
       <c r="E5" s="5" t="n">
         <v>0.1125384942195237</v>
       </c>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>0.1810817180669498</v>
+      </c>
       <c r="G5" s="5" t="n">
         <v>0.1153654758725395</v>
       </c>
@@ -758,7 +760,9 @@
       <c r="J5" s="5" t="n">
         <v>0.2195758921647375</v>
       </c>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>0.172412653338076</v>
+      </c>
       <c r="L5" s="5" t="n">
         <v>0.1396174954149649</v>
       </c>
@@ -771,7 +775,9 @@
       <c r="O5" s="5" t="n">
         <v>0.1844422520227148</v>
       </c>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="P5" s="5" t="n">
+        <v>0.1955478820049461</v>
+      </c>
       <c r="Q5" s="5" t="n">
         <v>0.1527855338128111</v>
       </c>
@@ -792,7 +798,9 @@
       <c r="E6" s="5" t="n">
         <v>0.2759278196531092</v>
       </c>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>0.4496377949595186</v>
+      </c>
       <c r="G6" s="5" t="n">
         <v>0.3878471398310627</v>
       </c>
@@ -805,7 +813,9 @@
       <c r="J6" s="5" t="n">
         <v>0.3857984260080596</v>
       </c>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>0.3546149949442799</v>
+      </c>
       <c r="L6" s="5" t="n">
         <v>0.3592617455922612</v>
       </c>
@@ -818,7 +828,9 @@
       <c r="O6" s="5" t="n">
         <v>0.2980473500034315</v>
       </c>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="P6" s="5" t="n">
+        <v>0.3633607783834941</v>
+      </c>
       <c r="Q6" s="5" t="n">
         <v>0.3373410831602515</v>
       </c>
@@ -827,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -840,7 +852,7 @@
         <v>0.6168008386629581</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0</v>
+        <v>0.4768425945020585</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.456127405951159</v>
@@ -855,7 +867,7 @@
         <v>0.5202029312259214</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0</v>
+        <v>0.3473043155168875</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>0.4252376050219409</v>
@@ -870,7 +882,7 @@
         <v>0.5688040721833484</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0</v>
+        <v>0.4108580893951175</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>0.4415635408732624</v>
@@ -892,7 +904,9 @@
       <c r="E8" s="5" t="n">
         <v>0.5030588150186729</v>
       </c>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>0.3291128914693546</v>
+      </c>
       <c r="G8" s="5" t="n">
         <v>0.3070798820325137</v>
       </c>
@@ -905,7 +919,9 @@
       <c r="J8" s="5" t="n">
         <v>0.4352909657797236</v>
       </c>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>0.2548893469509653</v>
+      </c>
       <c r="L8" s="5" t="n">
         <v>0.2880625227234726</v>
       </c>
@@ -918,7 +934,9 @@
       <c r="O8" s="5" t="n">
         <v>0.5034803187014114</v>
       </c>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="P8" s="5" t="n">
+        <v>0.3265280715929912</v>
+      </c>
       <c r="Q8" s="5" t="n">
         <v>0.3338246499146553</v>
       </c>
@@ -939,7 +957,9 @@
       <c r="E9" s="5" t="n">
         <v>0.7093787156808211</v>
       </c>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>0.6300104574656394</v>
+      </c>
       <c r="G9" s="5" t="n">
         <v>0.6214223265302828</v>
       </c>
@@ -952,7 +972,9 @@
       <c r="J9" s="5" t="n">
         <v>0.6108660652333173</v>
       </c>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.4487339304162929</v>
+      </c>
       <c r="L9" s="5" t="n">
         <v>0.5605626690329989</v>
       </c>
@@ -965,7 +987,9 @@
       <c r="O9" s="5" t="n">
         <v>0.6396393342332412</v>
       </c>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="n">
+        <v>0.49693716464641</v>
+      </c>
       <c r="Q9" s="5" t="n">
         <v>0.5415569740266096</v>
       </c>
@@ -974,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -987,7 +1011,7 @@
         <v>0.2018004585751316</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0</v>
+        <v>0.2211461858278852</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3161922636817174</v>
@@ -1002,7 +1026,7 @@
         <v>0.1787874395839343</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0</v>
+        <v>0.4046338817898329</v>
       </c>
       <c r="L10" s="5" t="n">
         <v>0.3430543318235928</v>
@@ -1017,7 +1041,7 @@
         <v>0.1903659407080517</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0</v>
+        <v>0.3146115684631446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>0.32885714090213</v>
@@ -1039,7 +1063,9 @@
       <c r="E11" s="5" t="n">
         <v>0.1332247651122682</v>
       </c>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>0.120009063700862</v>
+      </c>
       <c r="G11" s="5" t="n">
         <v>0.1830755198454847</v>
       </c>
@@ -1052,7 +1078,9 @@
       <c r="J11" s="5" t="n">
         <v>0.1161068304300462</v>
       </c>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>0.302910192394914</v>
+      </c>
       <c r="L11" s="5" t="n">
         <v>0.2180899952174415</v>
       </c>
@@ -1065,7 +1093,9 @@
       <c r="O11" s="5" t="n">
         <v>0.1396482636352588</v>
       </c>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="n">
+        <v>0.238361473756624</v>
+      </c>
       <c r="Q11" s="5" t="n">
         <v>0.2377408284518443</v>
       </c>
@@ -1086,7 +1116,9 @@
       <c r="E12" s="5" t="n">
         <v>0.294894067402198</v>
       </c>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>0.3493432254600769</v>
+      </c>
       <c r="G12" s="5" t="n">
         <v>0.5236603156497661</v>
       </c>
@@ -1099,7 +1131,9 @@
       <c r="J12" s="5" t="n">
         <v>0.2445053515202149</v>
       </c>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.5088069570639978</v>
+      </c>
       <c r="L12" s="5" t="n">
         <v>0.4893602860988523</v>
       </c>
@@ -1112,7 +1146,9 @@
       <c r="O12" s="5" t="n">
         <v>0.2421300308442329</v>
       </c>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="P12" s="5" t="n">
+        <v>0.40194654199883</v>
+      </c>
       <c r="Q12" s="5" t="n">
         <v>0.4414003650517875</v>
       </c>
@@ -1125,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1138,7 +1174,7 @@
         <v>0.2118847078136973</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0</v>
+        <v>0.2112207502780567</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3556245871755906</v>
@@ -1153,7 +1189,7 @@
         <v>0.1736359847701298</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0</v>
+        <v>0.2295968233160791</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>0.2073473045612495</v>
@@ -1168,7 +1204,7 @@
         <v>0.1939030527320048</v>
       </c>
       <c r="P13" s="5" t="n">
-        <v>0</v>
+        <v>0.2195292819297819</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>0.2830243380610082</v>
@@ -1190,7 +1226,9 @@
       <c r="E14" s="5" t="n">
         <v>0.1380125700940806</v>
       </c>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="n">
+        <v>0.1168510512979558</v>
+      </c>
       <c r="G14" s="5" t="n">
         <v>0.1819655168375472</v>
       </c>
@@ -1203,7 +1241,9 @@
       <c r="J14" s="5" t="n">
         <v>0.1262989166604749</v>
       </c>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>0.1534692513328596</v>
+      </c>
       <c r="L14" s="5" t="n">
         <v>0.1306178466184328</v>
       </c>
@@ -1216,7 +1256,9 @@
       <c r="O14" s="5" t="n">
         <v>0.1501064089215823</v>
       </c>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="P14" s="5" t="n">
+        <v>0.1589227058926108</v>
+      </c>
       <c r="Q14" s="5" t="n">
         <v>0.188244403966362</v>
       </c>
@@ -1237,7 +1279,9 @@
       <c r="E15" s="5" t="n">
         <v>0.2893598573012835</v>
       </c>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="n">
+        <v>0.3121541681311084</v>
+      </c>
       <c r="G15" s="5" t="n">
         <v>0.6132688768429707</v>
       </c>
@@ -1250,7 +1294,9 @@
       <c r="J15" s="5" t="n">
         <v>0.2298061755080597</v>
       </c>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.3216852430414409</v>
+      </c>
       <c r="L15" s="5" t="n">
         <v>0.3165876933534189</v>
       </c>
@@ -1263,7 +1309,9 @@
       <c r="O15" s="5" t="n">
         <v>0.2469156218837364</v>
       </c>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="P15" s="5" t="n">
+        <v>0.2886202713809276</v>
+      </c>
       <c r="Q15" s="5" t="n">
         <v>0.4606139969992368</v>
       </c>
@@ -1272,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1285,7 +1333,7 @@
         <v>0.5692688353535424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0</v>
+        <v>0.382236909057608</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2503269511272946</v>
@@ -1300,7 +1348,7 @@
         <v>0.5606472719353673</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0</v>
+        <v>0.5274559598609555</v>
       </c>
       <c r="L16" s="5" t="n">
         <v>0.5318477179827097</v>
@@ -1315,7 +1363,7 @@
         <v>0.565215628675924</v>
       </c>
       <c r="P16" s="5" t="n">
-        <v>0</v>
+        <v>0.4478960451274628</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>0.3881665273878769</v>
@@ -1337,7 +1385,9 @@
       <c r="E17" s="5" t="n">
         <v>0.4792939696575578</v>
       </c>
-      <c r="F17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="n">
+        <v>0.2334479865761418</v>
+      </c>
       <c r="G17" s="5" t="n">
         <v>0.1379964307003987</v>
       </c>
@@ -1350,7 +1400,9 @@
       <c r="J17" s="5" t="n">
         <v>0.4914037052380034</v>
       </c>
-      <c r="K17" s="5" t="inlineStr"/>
+      <c r="K17" s="5" t="n">
+        <v>0.4307201130380286</v>
+      </c>
       <c r="L17" s="5" t="n">
         <v>0.4264610286234561</v>
       </c>
@@ -1363,7 +1415,9 @@
       <c r="O17" s="5" t="n">
         <v>0.4994621743614198</v>
       </c>
-      <c r="P17" s="5" t="inlineStr"/>
+      <c r="P17" s="5" t="n">
+        <v>0.3373698708005189</v>
+      </c>
       <c r="Q17" s="5" t="n">
         <v>0.2830430192712065</v>
       </c>
@@ -1384,7 +1438,9 @@
       <c r="E18" s="5" t="n">
         <v>0.6857593708153173</v>
       </c>
-      <c r="F18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="n">
+        <v>0.5228863713072794</v>
+      </c>
       <c r="G18" s="5" t="n">
         <v>0.4383484949318446</v>
       </c>
@@ -1397,7 +1453,9 @@
       <c r="J18" s="5" t="n">
         <v>0.639889987977539</v>
       </c>
-      <c r="K18" s="5" t="inlineStr"/>
+      <c r="K18" s="5" t="n">
+        <v>0.6144218560872022</v>
+      </c>
       <c r="L18" s="5" t="n">
         <v>0.635505176155381</v>
       </c>
@@ -1410,7 +1468,9 @@
       <c r="O18" s="5" t="n">
         <v>0.6313400064610949</v>
       </c>
-      <c r="P18" s="5" t="inlineStr"/>
+      <c r="P18" s="5" t="n">
+        <v>0.5303947854151529</v>
+      </c>
       <c r="Q18" s="5" t="n">
         <v>0.488773841666747</v>
       </c>
@@ -1419,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1432,7 +1492,7 @@
         <v>0.2188464568327604</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0</v>
+        <v>0.4065423406643352</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.394048461697115</v>
@@ -1447,7 +1507,7 @@
         <v>0.2657167432945028</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0</v>
+        <v>0.2429472168229654</v>
       </c>
       <c r="L19" s="5" t="n">
         <v>0.260804977456041</v>
@@ -1462,7 +1522,7 @@
         <v>0.2408813185920712</v>
       </c>
       <c r="P19" s="5" t="n">
-        <v>0</v>
+        <v>0.3325746729427552</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>0.3288091345511149</v>
@@ -1484,7 +1544,9 @@
       <c r="E20" s="5" t="n">
         <v>0.147451097737746</v>
       </c>
-      <c r="F20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="n">
+        <v>0.2414283923602814</v>
+      </c>
       <c r="G20" s="5" t="n">
         <v>0.2067520950624555</v>
       </c>
@@ -1497,7 +1559,9 @@
       <c r="J20" s="5" t="n">
         <v>0.1948173066263795</v>
       </c>
-      <c r="K20" s="5" t="inlineStr"/>
+      <c r="K20" s="5" t="n">
+        <v>0.1754301718110849</v>
+      </c>
       <c r="L20" s="5" t="n">
         <v>0.1752644551031372</v>
       </c>
@@ -1510,7 +1574,9 @@
       <c r="O20" s="5" t="n">
         <v>0.1891322136122816</v>
       </c>
-      <c r="P20" s="5" t="inlineStr"/>
+      <c r="P20" s="5" t="n">
+        <v>0.2346428280579365</v>
+      </c>
       <c r="Q20" s="5" t="n">
         <v>0.2382876289506016</v>
       </c>
@@ -1531,7 +1597,9 @@
       <c r="E21" s="5" t="n">
         <v>0.3011242703778813</v>
       </c>
-      <c r="F21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="n">
+        <v>0.639140616193803</v>
+      </c>
       <c r="G21" s="5" t="n">
         <v>0.5942197011022692</v>
       </c>
@@ -1544,7 +1612,9 @@
       <c r="J21" s="5" t="n">
         <v>0.3281720282033017</v>
       </c>
-      <c r="K21" s="5" t="inlineStr"/>
+      <c r="K21" s="5" t="n">
+        <v>0.3274894822585148</v>
+      </c>
       <c r="L21" s="5" t="n">
         <v>0.3567043806220487</v>
       </c>
@@ -1557,7 +1627,9 @@
       <c r="O21" s="5" t="n">
         <v>0.2944589438240334</v>
       </c>
-      <c r="P21" s="5" t="inlineStr"/>
+      <c r="P21" s="5" t="n">
+        <v>0.4984581843531815</v>
+      </c>
       <c r="Q21" s="5" t="n">
         <v>0.461306289880325</v>
       </c>
@@ -1570,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1583,7 +1655,7 @@
         <v>0.1402462762809713</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0</v>
+        <v>0.1817296247888874</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1422939871229742</v>
@@ -1598,7 +1670,7 @@
         <v>0.1795834391858945</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0</v>
+        <v>0.2359475531224838</v>
       </c>
       <c r="L22" s="5" t="n">
         <v>0.1897050811515321</v>
@@ -1613,7 +1685,7 @@
         <v>0.1602537256910513</v>
       </c>
       <c r="P22" s="5" t="n">
-        <v>0</v>
+        <v>0.209954620994315</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>0.1645763570343718</v>
@@ -1635,7 +1707,9 @@
       <c r="E23" s="5" t="n">
         <v>0.1005432122741779</v>
       </c>
-      <c r="F23" s="5" t="inlineStr"/>
+      <c r="F23" s="5" t="n">
+        <v>0.1188651745479146</v>
+      </c>
       <c r="G23" s="5" t="n">
         <v>0.08600532481956577</v>
       </c>
@@ -1648,7 +1722,9 @@
       <c r="J23" s="5" t="n">
         <v>0.135729423569299</v>
       </c>
-      <c r="K23" s="5" t="inlineStr"/>
+      <c r="K23" s="5" t="n">
+        <v>0.1823752739104539</v>
+      </c>
       <c r="L23" s="5" t="n">
         <v>0.1268572277045266</v>
       </c>
@@ -1661,7 +1737,9 @@
       <c r="O23" s="5" t="n">
         <v>0.1276376446582065</v>
       </c>
-      <c r="P23" s="5" t="inlineStr"/>
+      <c r="P23" s="5" t="n">
+        <v>0.1691788786187962</v>
+      </c>
       <c r="Q23" s="5" t="n">
         <v>0.1169206615284741</v>
       </c>
@@ -1682,7 +1760,9 @@
       <c r="E24" s="5" t="n">
         <v>0.1951742226435847</v>
       </c>
-      <c r="F24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="n">
+        <v>0.3126795925101256</v>
+      </c>
       <c r="G24" s="5" t="n">
         <v>0.2261978880094603</v>
       </c>
@@ -1695,7 +1775,9 @@
       <c r="J24" s="5" t="n">
         <v>0.2254341036387124</v>
       </c>
-      <c r="K24" s="5" t="inlineStr"/>
+      <c r="K24" s="5" t="n">
+        <v>0.3018931773011395</v>
+      </c>
       <c r="L24" s="5" t="n">
         <v>0.2894178348618256</v>
       </c>
@@ -1708,7 +1790,9 @@
       <c r="O24" s="5" t="n">
         <v>0.1963093268696218</v>
       </c>
-      <c r="P24" s="5" t="inlineStr"/>
+      <c r="P24" s="5" t="n">
+        <v>0.2758745974212635</v>
+      </c>
       <c r="Q24" s="5" t="n">
         <v>0.2198724323287088</v>
       </c>
@@ -1717,7 +1801,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1730,7 +1814,7 @@
         <v>0.6166769678740879</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0</v>
+        <v>0.5888788939519144</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.5340734886260676</v>
@@ -1745,7 +1829,7 @@
         <v>0.5293233543858981</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0</v>
+        <v>0.509868216819182</v>
       </c>
       <c r="L25" s="5" t="n">
         <v>0.5553130335807973</v>
@@ -1760,7 +1844,7 @@
         <v>0.5722476579394383</v>
       </c>
       <c r="P25" s="5" t="n">
-        <v>0</v>
+        <v>0.5477471847405582</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>0.5440556965275765</v>
@@ -1782,7 +1866,9 @@
       <c r="E26" s="5" t="n">
         <v>0.5348586731656358</v>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="n">
+        <v>0.4914152603145673</v>
+      </c>
       <c r="G26" s="5" t="n">
         <v>0.4202763551769661</v>
       </c>
@@ -1795,7 +1881,9 @@
       <c r="J26" s="5" t="n">
         <v>0.4703098120110898</v>
       </c>
-      <c r="K26" s="5" t="inlineStr"/>
+      <c r="K26" s="5" t="n">
+        <v>0.4436443111947372</v>
+      </c>
       <c r="L26" s="5" t="n">
         <v>0.4473118192189331</v>
       </c>
@@ -1808,7 +1896,9 @@
       <c r="O26" s="5" t="n">
         <v>0.5214032478365492</v>
       </c>
-      <c r="P26" s="5" t="inlineStr"/>
+      <c r="P26" s="5" t="n">
+        <v>0.4884468136902916</v>
+      </c>
       <c r="Q26" s="5" t="n">
         <v>0.4745763791171951</v>
       </c>
@@ -1829,7 +1919,9 @@
       <c r="E27" s="5" t="n">
         <v>0.6838587113802035</v>
       </c>
-      <c r="F27" s="5" t="inlineStr"/>
+      <c r="F27" s="5" t="n">
+        <v>0.6705853693377569</v>
+      </c>
       <c r="G27" s="5" t="n">
         <v>0.628836304064427</v>
       </c>
@@ -1842,7 +1934,9 @@
       <c r="J27" s="5" t="n">
         <v>0.5893343793236886</v>
       </c>
-      <c r="K27" s="5" t="inlineStr"/>
+      <c r="K27" s="5" t="n">
+        <v>0.5738120017009505</v>
+      </c>
       <c r="L27" s="5" t="n">
         <v>0.6444771488295798</v>
       </c>
@@ -1855,7 +1949,9 @@
       <c r="O27" s="5" t="n">
         <v>0.6206579193061561</v>
       </c>
-      <c r="P27" s="5" t="inlineStr"/>
+      <c r="P27" s="5" t="n">
+        <v>0.5998085568140378</v>
+      </c>
       <c r="Q27" s="5" t="n">
         <v>0.6182348780746438</v>
       </c>
@@ -1864,7 +1960,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1877,7 +1973,7 @@
         <v>0.2430767558449406</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0</v>
+        <v>0.2293914812591982</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.3236325242509579</v>
@@ -1892,7 +1988,7 @@
         <v>0.2910932064282074</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0</v>
+        <v>0.2541842300583343</v>
       </c>
       <c r="L28" s="5" t="n">
         <v>0.2549818852676705</v>
@@ -1907,7 +2003,7 @@
         <v>0.2674986163695104</v>
       </c>
       <c r="P28" s="5" t="n">
-        <v>0</v>
+        <v>0.2422981942651269</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>0.2913679464380518</v>
@@ -1929,7 +2025,9 @@
       <c r="E29" s="5" t="n">
         <v>0.1844056492291947</v>
       </c>
-      <c r="F29" s="5" t="inlineStr"/>
+      <c r="F29" s="5" t="n">
+        <v>0.169369244809982</v>
+      </c>
       <c r="G29" s="5" t="n">
         <v>0.237756518492676</v>
       </c>
@@ -1942,7 +2040,9 @@
       <c r="J29" s="5" t="n">
         <v>0.2410516142229144</v>
       </c>
-      <c r="K29" s="5" t="inlineStr"/>
+      <c r="K29" s="5" t="n">
+        <v>0.1988698365158031</v>
+      </c>
       <c r="L29" s="5" t="n">
         <v>0.1798718518071289</v>
       </c>
@@ -1955,7 +2055,9 @@
       <c r="O29" s="5" t="n">
         <v>0.2282095991002212</v>
       </c>
-      <c r="P29" s="5" t="inlineStr"/>
+      <c r="P29" s="5" t="n">
+        <v>0.199298529704165</v>
+      </c>
       <c r="Q29" s="5" t="n">
         <v>0.2257976636342236</v>
       </c>
@@ -1976,7 +2078,9 @@
       <c r="E30" s="5" t="n">
         <v>0.3109845592710476</v>
       </c>
-      <c r="F30" s="5" t="inlineStr"/>
+      <c r="F30" s="5" t="n">
+        <v>0.3076051707492142</v>
+      </c>
       <c r="G30" s="5" t="n">
         <v>0.4323824805015214</v>
       </c>
@@ -1989,7 +2093,9 @@
       <c r="J30" s="5" t="n">
         <v>0.349298151536622</v>
       </c>
-      <c r="K30" s="5" t="inlineStr"/>
+      <c r="K30" s="5" t="n">
+        <v>0.3172298509867724</v>
+      </c>
       <c r="L30" s="5" t="n">
         <v>0.3503768040779985</v>
       </c>
@@ -2002,7 +2108,9 @@
       <c r="O30" s="5" t="n">
         <v>0.3123476416392079</v>
       </c>
-      <c r="P30" s="5" t="inlineStr"/>
+      <c r="P30" s="5" t="n">
+        <v>0.2891766605162606</v>
+      </c>
       <c r="Q30" s="5" t="n">
         <v>0.3629628031354182</v>
       </c>
@@ -2015,7 +2123,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2028,7 +2136,7 @@
         <v>0.22176004640796</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>0</v>
+        <v>0.1585995364370145</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>0.2085116812363688</v>
@@ -2043,7 +2151,7 @@
         <v>0.1391518017465919</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0</v>
+        <v>0.1768641127454471</v>
       </c>
       <c r="L31" s="5" t="n">
         <v>0.209860767580309</v>
@@ -2058,7 +2166,7 @@
         <v>0.1794584585269875</v>
       </c>
       <c r="P31" s="5" t="n">
-        <v>0</v>
+        <v>0.1678034159934376</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>0.2091552210809144</v>
@@ -2080,7 +2188,9 @@
       <c r="E32" s="5" t="n">
         <v>0.1687761694645543</v>
       </c>
-      <c r="F32" s="5" t="inlineStr"/>
+      <c r="F32" s="5" t="n">
+        <v>0.112082886393456</v>
+      </c>
       <c r="G32" s="5" t="n">
         <v>0.1224490016678949</v>
       </c>
@@ -2093,7 +2203,9 @@
       <c r="J32" s="5" t="n">
         <v>0.1009365722478909</v>
       </c>
-      <c r="K32" s="5" t="inlineStr"/>
+      <c r="K32" s="5" t="n">
+        <v>0.1321884639666727</v>
+      </c>
       <c r="L32" s="5" t="n">
         <v>0.1434793562692183</v>
       </c>
@@ -2106,7 +2218,9 @@
       <c r="O32" s="5" t="n">
         <v>0.1466453220886258</v>
       </c>
-      <c r="P32" s="5" t="inlineStr"/>
+      <c r="P32" s="5" t="n">
+        <v>0.1332325161047909</v>
+      </c>
       <c r="Q32" s="5" t="n">
         <v>0.1503195085161211</v>
       </c>
@@ -2127,7 +2241,9 @@
       <c r="E33" s="5" t="n">
         <v>0.306984393622214</v>
       </c>
-      <c r="F33" s="5" t="inlineStr"/>
+      <c r="F33" s="5" t="n">
+        <v>0.2191006250263908</v>
+      </c>
       <c r="G33" s="5" t="n">
         <v>0.3366681655107807</v>
       </c>
@@ -2140,7 +2256,9 @@
       <c r="J33" s="5" t="n">
         <v>0.1819398709808808</v>
       </c>
-      <c r="K33" s="5" t="inlineStr"/>
+      <c r="K33" s="5" t="n">
+        <v>0.2374751071843687</v>
+      </c>
       <c r="L33" s="5" t="n">
         <v>0.2982346915405287</v>
       </c>
@@ -2153,7 +2271,9 @@
       <c r="O33" s="5" t="n">
         <v>0.2230591553770049</v>
       </c>
-      <c r="P33" s="5" t="inlineStr"/>
+      <c r="P33" s="5" t="n">
+        <v>0.2098147231505119</v>
+      </c>
       <c r="Q33" s="5" t="n">
         <v>0.2920942239416959</v>
       </c>
@@ -2162,7 +2282,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2175,7 +2295,7 @@
         <v>0.538834223679947</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0</v>
+        <v>0.5590104522913969</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>0.5786975921423717</v>
@@ -2190,7 +2310,7 @@
         <v>0.5734910656260211</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0</v>
+        <v>0.5599054650946961</v>
       </c>
       <c r="L34" s="5" t="n">
         <v>0.5601397184425424</v>
@@ -2205,7 +2325,7 @@
         <v>0.5565811138513639</v>
       </c>
       <c r="P34" s="5" t="n">
-        <v>0</v>
+        <v>0.559461466862111</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>0.5698451334324248</v>
@@ -2227,7 +2347,9 @@
       <c r="E35" s="5" t="n">
         <v>0.4687251149549241</v>
       </c>
-      <c r="F35" s="5" t="inlineStr"/>
+      <c r="F35" s="5" t="n">
+        <v>0.4807192904064708</v>
+      </c>
       <c r="G35" s="5" t="n">
         <v>0.4684080003197419</v>
       </c>
@@ -2240,7 +2362,9 @@
       <c r="J35" s="5" t="n">
         <v>0.5136920433426758</v>
       </c>
-      <c r="K35" s="5" t="inlineStr"/>
+      <c r="K35" s="5" t="n">
+        <v>0.4935859838235542</v>
+      </c>
       <c r="L35" s="5" t="n">
         <v>0.467247603232666</v>
       </c>
@@ -2253,7 +2377,9 @@
       <c r="O35" s="5" t="n">
         <v>0.5146349601582921</v>
       </c>
-      <c r="P35" s="5" t="inlineStr"/>
+      <c r="P35" s="5" t="n">
+        <v>0.5058247689911084</v>
+      </c>
       <c r="Q35" s="5" t="n">
         <v>0.5009069658957265</v>
       </c>
@@ -2274,7 +2400,9 @@
       <c r="E36" s="5" t="n">
         <v>0.6055752987766059</v>
       </c>
-      <c r="F36" s="5" t="inlineStr"/>
+      <c r="F36" s="5" t="n">
+        <v>0.6555348168535782</v>
+      </c>
       <c r="G36" s="5" t="n">
         <v>0.6849852249807736</v>
       </c>
@@ -2287,7 +2415,9 @@
       <c r="J36" s="5" t="n">
         <v>0.6207028551993464</v>
       </c>
-      <c r="K36" s="5" t="inlineStr"/>
+      <c r="K36" s="5" t="n">
+        <v>0.6228989948243354</v>
+      </c>
       <c r="L36" s="5" t="n">
         <v>0.6511948664128595</v>
       </c>
@@ -2300,7 +2430,9 @@
       <c r="O36" s="5" t="n">
         <v>0.5981359696453872</v>
       </c>
-      <c r="P36" s="5" t="inlineStr"/>
+      <c r="P36" s="5" t="n">
+        <v>0.619668741595877</v>
+      </c>
       <c r="Q36" s="5" t="n">
         <v>0.6493931265397976</v>
       </c>
@@ -2309,7 +2441,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2322,7 +2454,7 @@
         <v>0.2394057299120931</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>0</v>
+        <v>0.2823900112715885</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>0.2127907266212598</v>
@@ -2337,7 +2469,7 @@
         <v>0.287357132627387</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0</v>
+        <v>0.2632304221598568</v>
       </c>
       <c r="L37" s="5" t="n">
         <v>0.2299995139771485</v>
@@ -2352,7 +2484,7 @@
         <v>0.2639604276216487</v>
       </c>
       <c r="P37" s="5" t="n">
-        <v>0</v>
+        <v>0.2727351171444514</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>0.220999645486661</v>
@@ -2374,7 +2506,9 @@
       <c r="E38" s="5" t="n">
         <v>0.1877387631651652</v>
       </c>
-      <c r="F38" s="5" t="inlineStr"/>
+      <c r="F38" s="5" t="n">
+        <v>0.2163971197469507</v>
+      </c>
       <c r="G38" s="5" t="n">
         <v>0.1379395072492722</v>
       </c>
@@ -2387,7 +2521,9 @@
       <c r="J38" s="5" t="n">
         <v>0.2414453457475053</v>
       </c>
-      <c r="K38" s="5" t="inlineStr"/>
+      <c r="K38" s="5" t="n">
+        <v>0.2063338627863167</v>
+      </c>
       <c r="L38" s="5" t="n">
         <v>0.1557404560268539</v>
       </c>
@@ -2400,7 +2536,9 @@
       <c r="O38" s="5" t="n">
         <v>0.2312380152137826</v>
       </c>
-      <c r="P38" s="5" t="inlineStr"/>
+      <c r="P38" s="5" t="n">
+        <v>0.2277398685117974</v>
+      </c>
       <c r="Q38" s="5" t="n">
         <v>0.1676685358213875</v>
       </c>
@@ -2421,7 +2559,9 @@
       <c r="E39" s="5" t="n">
         <v>0.2987277350575217</v>
       </c>
-      <c r="F39" s="5" t="inlineStr"/>
+      <c r="F39" s="5" t="n">
+        <v>0.3651523600274192</v>
+      </c>
       <c r="G39" s="5" t="n">
         <v>0.2976266025803045</v>
       </c>
@@ -2434,7 +2574,9 @@
       <c r="J39" s="5" t="n">
         <v>0.338981295699515</v>
       </c>
-      <c r="K39" s="5" t="inlineStr"/>
+      <c r="K39" s="5" t="n">
+        <v>0.3226397686183381</v>
+      </c>
       <c r="L39" s="5" t="n">
         <v>0.3080156479285246</v>
       </c>
@@ -2447,7 +2589,9 @@
       <c r="O39" s="5" t="n">
         <v>0.3064452768741526</v>
       </c>
-      <c r="P39" s="5" t="inlineStr"/>
+      <c r="P39" s="5" t="n">
+        <v>0.3206032999164487</v>
+      </c>
       <c r="Q39" s="5" t="n">
         <v>0.2775143069801602</v>
       </c>
@@ -2460,7 +2604,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2473,7 +2617,7 @@
         <v>0.1500089350102291</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>0</v>
+        <v>0.177837041266419</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>0.2060195589653219</v>
@@ -2488,7 +2632,7 @@
         <v>0.1617755627566901</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0</v>
+        <v>0.1428104609253261</v>
       </c>
       <c r="L40" s="5" t="n">
         <v>0.2300341623587762</v>
@@ -2503,7 +2647,7 @@
         <v>0.1559540525533731</v>
       </c>
       <c r="P40" s="5" t="n">
-        <v>0</v>
+        <v>0.1602238897595267</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>0.2184343679039272</v>
@@ -2525,7 +2669,9 @@
       <c r="E41" s="5" t="n">
         <v>0.1084339399646208</v>
       </c>
-      <c r="F41" s="5" t="inlineStr"/>
+      <c r="F41" s="5" t="n">
+        <v>0.1213742247475524</v>
+      </c>
       <c r="G41" s="5" t="n">
         <v>0.1312316076507161</v>
       </c>
@@ -2538,7 +2684,9 @@
       <c r="J41" s="5" t="n">
         <v>0.1153263121755885</v>
       </c>
-      <c r="K41" s="5" t="inlineStr"/>
+      <c r="K41" s="5" t="n">
+        <v>0.09306958035271677</v>
+      </c>
       <c r="L41" s="5" t="n">
         <v>0.1522919186323635</v>
       </c>
@@ -2551,7 +2699,9 @@
       <c r="O41" s="5" t="n">
         <v>0.1230430258717429</v>
       </c>
-      <c r="P41" s="5" t="inlineStr"/>
+      <c r="P41" s="5" t="n">
+        <v>0.1184357947390008</v>
+      </c>
       <c r="Q41" s="5" t="n">
         <v>0.1642309773303469</v>
       </c>
@@ -2572,7 +2722,9 @@
       <c r="E42" s="5" t="n">
         <v>0.2007529750006588</v>
       </c>
-      <c r="F42" s="5" t="inlineStr"/>
+      <c r="F42" s="5" t="n">
+        <v>0.2550292648567142</v>
+      </c>
       <c r="G42" s="5" t="n">
         <v>0.2928780354382694</v>
       </c>
@@ -2585,7 +2737,9 @@
       <c r="J42" s="5" t="n">
         <v>0.2180323496505243</v>
       </c>
-      <c r="K42" s="5" t="inlineStr"/>
+      <c r="K42" s="5" t="n">
+        <v>0.2272711834052545</v>
+      </c>
       <c r="L42" s="5" t="n">
         <v>0.3122587784502221</v>
       </c>
@@ -2598,7 +2752,9 @@
       <c r="O42" s="5" t="n">
         <v>0.1931085356555808</v>
       </c>
-      <c r="P42" s="5" t="inlineStr"/>
+      <c r="P42" s="5" t="n">
+        <v>0.213311575266815</v>
+      </c>
       <c r="Q42" s="5" t="n">
         <v>0.2790956978879791</v>
       </c>
@@ -2607,7 +2763,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2620,7 +2776,7 @@
         <v>0.6150499146531979</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>0</v>
+        <v>0.5687193878052725</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>0.5069899432063457</v>
@@ -2635,7 +2791,7 @@
         <v>0.6398799955288968</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0</v>
+        <v>0.6275283809045815</v>
       </c>
       <c r="L43" s="5" t="n">
         <v>0.4954855878187602</v>
@@ -2650,7 +2806,7 @@
         <v>0.6275953739464265</v>
       </c>
       <c r="P43" s="5" t="n">
-        <v>0</v>
+        <v>0.5982915497274198</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>0.5010425464595138</v>
@@ -2672,7 +2828,9 @@
       <c r="E44" s="5" t="n">
         <v>0.547098310867459</v>
       </c>
-      <c r="F44" s="5" t="inlineStr"/>
+      <c r="F44" s="5" t="n">
+        <v>0.4794329149949171</v>
+      </c>
       <c r="G44" s="5" t="n">
         <v>0.4026957856689968</v>
       </c>
@@ -2685,7 +2843,9 @@
       <c r="J44" s="5" t="n">
         <v>0.5761192315407228</v>
       </c>
-      <c r="K44" s="5" t="inlineStr"/>
+      <c r="K44" s="5" t="n">
+        <v>0.5296733123740084</v>
+      </c>
       <c r="L44" s="5" t="n">
         <v>0.4010855763275847</v>
       </c>
@@ -2698,7 +2858,9 @@
       <c r="O44" s="5" t="n">
         <v>0.5820373654231014</v>
       </c>
-      <c r="P44" s="5" t="inlineStr"/>
+      <c r="P44" s="5" t="n">
+        <v>0.5362436340344511</v>
+      </c>
       <c r="Q44" s="5" t="n">
         <v>0.4267865709637817</v>
       </c>
@@ -2719,7 +2881,9 @@
       <c r="E45" s="5" t="n">
         <v>0.6770088280800198</v>
       </c>
-      <c r="F45" s="5" t="inlineStr"/>
+      <c r="F45" s="5" t="n">
+        <v>0.6547244346683474</v>
+      </c>
       <c r="G45" s="5" t="n">
         <v>0.6163107127430132</v>
       </c>
@@ -2732,7 +2896,9 @@
       <c r="J45" s="5" t="n">
         <v>0.7026527037459652</v>
       </c>
-      <c r="K45" s="5" t="inlineStr"/>
+      <c r="K45" s="5" t="n">
+        <v>0.7124860197361329</v>
+      </c>
       <c r="L45" s="5" t="n">
         <v>0.5914964271090024</v>
       </c>
@@ -2745,7 +2911,9 @@
       <c r="O45" s="5" t="n">
         <v>0.6708810545999582</v>
       </c>
-      <c r="P45" s="5" t="inlineStr"/>
+      <c r="P45" s="5" t="n">
+        <v>0.6623159730200943</v>
+      </c>
       <c r="Q45" s="5" t="n">
         <v>0.5719762782147289</v>
       </c>
@@ -2754,7 +2922,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2767,7 +2935,7 @@
         <v>0.2349411503365729</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>0</v>
+        <v>0.2534435709283087</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>0.2869904978283327</v>
@@ -2782,7 +2950,7 @@
         <v>0.1983444417144129</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0</v>
+        <v>0.2296611581700926</v>
       </c>
       <c r="L46" s="5" t="n">
         <v>0.2744802498224636</v>
@@ -2797,7 +2965,7 @@
         <v>0.2164505735002003</v>
       </c>
       <c r="P46" s="5" t="n">
-        <v>0</v>
+        <v>0.2414845605130533</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>0.2805230856365591</v>
@@ -2819,7 +2987,9 @@
       <c r="E47" s="5" t="n">
         <v>0.1829255568207695</v>
       </c>
-      <c r="F47" s="5" t="inlineStr"/>
+      <c r="F47" s="5" t="n">
+        <v>0.1812185563471603</v>
+      </c>
       <c r="G47" s="5" t="n">
         <v>0.1904186497102306</v>
       </c>
@@ -2832,7 +3002,9 @@
       <c r="J47" s="5" t="n">
         <v>0.1427593755512049</v>
       </c>
-      <c r="K47" s="5" t="inlineStr"/>
+      <c r="K47" s="5" t="n">
+        <v>0.1614347281668682</v>
+      </c>
       <c r="L47" s="5" t="n">
         <v>0.2004336726699179</v>
       </c>
@@ -2845,7 +3017,9 @@
       <c r="O47" s="5" t="n">
         <v>0.1761224612725351</v>
       </c>
-      <c r="P47" s="5" t="inlineStr"/>
+      <c r="P47" s="5" t="n">
+        <v>0.1916157922054184</v>
+      </c>
       <c r="Q47" s="5" t="n">
         <v>0.2138698243126753</v>
       </c>
@@ -2866,7 +3040,9 @@
       <c r="E48" s="5" t="n">
         <v>0.2980629395792147</v>
       </c>
-      <c r="F48" s="5" t="inlineStr"/>
+      <c r="F48" s="5" t="n">
+        <v>0.3392560084029075</v>
+      </c>
       <c r="G48" s="5" t="n">
         <v>0.3944019800203681</v>
       </c>
@@ -2879,7 +3055,9 @@
       <c r="J48" s="5" t="n">
         <v>0.2544610238436616</v>
       </c>
-      <c r="K48" s="5" t="inlineStr"/>
+      <c r="K48" s="5" t="n">
+        <v>0.3185927881955615</v>
+      </c>
       <c r="L48" s="5" t="n">
         <v>0.3717964876162669</v>
       </c>
@@ -2892,7 +3070,9 @@
       <c r="O48" s="5" t="n">
         <v>0.261291417189091</v>
       </c>
-      <c r="P48" s="5" t="inlineStr"/>
+      <c r="P48" s="5" t="n">
+        <v>0.3046511721366136</v>
+      </c>
       <c r="Q48" s="5" t="n">
         <v>0.3492340708986886</v>
       </c>
@@ -2905,7 +3085,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2918,7 +3098,7 @@
         <v>0.2504501126729628</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>0</v>
+        <v>0.1356878930269613</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>0.2114019176099986</v>
@@ -2933,7 +3113,7 @@
         <v>0.1207259704176471</v>
       </c>
       <c r="K49" s="5" t="n">
-        <v>0</v>
+        <v>0.1500226525382197</v>
       </c>
       <c r="L49" s="5" t="n">
         <v>0.1676262443638365</v>
@@ -2948,7 +3128,7 @@
         <v>0.1774573850195303</v>
       </c>
       <c r="P49" s="5" t="n">
-        <v>0</v>
+        <v>0.1438338080186981</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>0.1862273319415948</v>
@@ -2970,7 +3150,9 @@
       <c r="E50" s="5" t="n">
         <v>0.1823732467077469</v>
       </c>
-      <c r="F50" s="5" t="inlineStr"/>
+      <c r="F50" s="5" t="n">
+        <v>0.06841845085913247</v>
+      </c>
       <c r="G50" s="5" t="n">
         <v>0.1265029417087947</v>
       </c>
@@ -2983,7 +3165,9 @@
       <c r="J50" s="5" t="n">
         <v>0.07590072347676048</v>
       </c>
-      <c r="K50" s="5" t="inlineStr"/>
+      <c r="K50" s="5" t="n">
+        <v>0.09173445250505209</v>
+      </c>
       <c r="L50" s="5" t="n">
         <v>0.09565661441097977</v>
       </c>
@@ -2996,7 +3180,9 @@
       <c r="O50" s="5" t="n">
         <v>0.1363900321395192</v>
       </c>
-      <c r="P50" s="5" t="inlineStr"/>
+      <c r="P50" s="5" t="n">
+        <v>0.09504161433739951</v>
+      </c>
       <c r="Q50" s="5" t="n">
         <v>0.1284526572528321</v>
       </c>
@@ -3017,7 +3203,9 @@
       <c r="E51" s="5" t="n">
         <v>0.3522185556616079</v>
       </c>
-      <c r="F51" s="5" t="inlineStr"/>
+      <c r="F51" s="5" t="n">
+        <v>0.2276190131218574</v>
+      </c>
       <c r="G51" s="5" t="n">
         <v>0.3318138595012199</v>
       </c>
@@ -3030,7 +3218,9 @@
       <c r="J51" s="5" t="n">
         <v>0.1861610317001216</v>
       </c>
-      <c r="K51" s="5" t="inlineStr"/>
+      <c r="K51" s="5" t="n">
+        <v>0.2394358841852547</v>
+      </c>
       <c r="L51" s="5" t="n">
         <v>0.2877994741563123</v>
       </c>
@@ -3043,7 +3233,9 @@
       <c r="O51" s="5" t="n">
         <v>0.2337395935962597</v>
       </c>
-      <c r="P51" s="5" t="inlineStr"/>
+      <c r="P51" s="5" t="n">
+        <v>0.2070929242364302</v>
+      </c>
       <c r="Q51" s="5" t="n">
         <v>0.262073484538815</v>
       </c>
@@ -3052,7 +3244,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -3065,7 +3257,7 @@
         <v>0.5268362939057206</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>0</v>
+        <v>0.5827056413038616</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>0.5567330468191153</v>
@@ -3080,7 +3272,7 @@
         <v>0.5836935895457022</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>0</v>
+        <v>0.5313011497583825</v>
       </c>
       <c r="L52" s="5" t="n">
         <v>0.5296627261636816</v>
@@ -3095,7 +3287,7 @@
         <v>0.5588285585960645</v>
       </c>
       <c r="P52" s="5" t="n">
-        <v>0</v>
+        <v>0.5534943651750888</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>0.5411654026031323</v>
@@ -3117,7 +3309,9 @@
       <c r="E53" s="5" t="n">
         <v>0.4306054467685956</v>
       </c>
-      <c r="F53" s="5" t="inlineStr"/>
+      <c r="F53" s="5" t="n">
+        <v>0.4643555897453077</v>
+      </c>
       <c r="G53" s="5" t="n">
         <v>0.4217458398211225</v>
       </c>
@@ -3130,7 +3324,9 @@
       <c r="J53" s="5" t="n">
         <v>0.5014982943154582</v>
       </c>
-      <c r="K53" s="5" t="inlineStr"/>
+      <c r="K53" s="5" t="n">
+        <v>0.4216938976375776</v>
+      </c>
       <c r="L53" s="5" t="n">
         <v>0.3887779493161065</v>
       </c>
@@ -3143,7 +3339,9 @@
       <c r="O53" s="5" t="n">
         <v>0.4952069701989587</v>
       </c>
-      <c r="P53" s="5" t="inlineStr"/>
+      <c r="P53" s="5" t="n">
+        <v>0.4770837827956531</v>
+      </c>
       <c r="Q53" s="5" t="n">
         <v>0.4323210271845858</v>
       </c>
@@ -3164,7 +3362,9 @@
       <c r="E54" s="5" t="n">
         <v>0.6205316921285968</v>
       </c>
-      <c r="F54" s="5" t="inlineStr"/>
+      <c r="F54" s="5" t="n">
+        <v>0.6982855898747404</v>
+      </c>
       <c r="G54" s="5" t="n">
         <v>0.6698709957686054</v>
       </c>
@@ -3177,7 +3377,9 @@
       <c r="J54" s="5" t="n">
         <v>0.6664557047131912</v>
       </c>
-      <c r="K54" s="5" t="inlineStr"/>
+      <c r="K54" s="5" t="n">
+        <v>0.6375420565655742</v>
+      </c>
       <c r="L54" s="5" t="n">
         <v>0.6785828814495454</v>
       </c>
@@ -3190,7 +3392,9 @@
       <c r="O54" s="5" t="n">
         <v>0.6185762452942615</v>
       </c>
-      <c r="P54" s="5" t="inlineStr"/>
+      <c r="P54" s="5" t="n">
+        <v>0.6384182545180246</v>
+      </c>
       <c r="Q54" s="5" t="n">
         <v>0.6297280458573273</v>
       </c>
@@ -3199,7 +3403,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3212,7 +3416,7 @@
         <v>0.2227135934213163</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>0</v>
+        <v>0.281606465669177</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>0.231865035570886</v>
@@ -3227,7 +3431,7 @@
         <v>0.2955804400366508</v>
       </c>
       <c r="K55" s="5" t="n">
-        <v>0</v>
+        <v>0.3186761977033978</v>
       </c>
       <c r="L55" s="5" t="n">
         <v>0.3027110294724819</v>
@@ -3242,7 +3446,7 @@
         <v>0.2637140563844053</v>
       </c>
       <c r="P55" s="5" t="n">
-        <v>0</v>
+        <v>0.3026718268062132</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>0.2726072654552729</v>
@@ -3264,7 +3468,9 @@
       <c r="E56" s="5" t="n">
         <v>0.1487841833213925</v>
       </c>
-      <c r="F56" s="5" t="inlineStr"/>
+      <c r="F56" s="5" t="n">
+        <v>0.1699910568687319</v>
+      </c>
       <c r="G56" s="5" t="n">
         <v>0.1355514366983438</v>
       </c>
@@ -3277,7 +3483,9 @@
       <c r="J56" s="5" t="n">
         <v>0.2192916594532816</v>
       </c>
-      <c r="K56" s="5" t="inlineStr"/>
+      <c r="K56" s="5" t="n">
+        <v>0.2241677975512299</v>
+      </c>
       <c r="L56" s="5" t="n">
         <v>0.1743336428661625</v>
       </c>
@@ -3290,7 +3498,9 @@
       <c r="O56" s="5" t="n">
         <v>0.2092776063016432</v>
       </c>
-      <c r="P56" s="5" t="inlineStr"/>
+      <c r="P56" s="5" t="n">
+        <v>0.2309329485078507</v>
+      </c>
       <c r="Q56" s="5" t="n">
         <v>0.1969078597145593</v>
       </c>
@@ -3311,7 +3521,9 @@
       <c r="E57" s="5" t="n">
         <v>0.3231419569300952</v>
       </c>
-      <c r="F57" s="5" t="inlineStr"/>
+      <c r="F57" s="5" t="n">
+        <v>0.3947739790443838</v>
+      </c>
       <c r="G57" s="5" t="n">
         <v>0.3568458173872286</v>
       </c>
@@ -3324,7 +3536,9 @@
       <c r="J57" s="5" t="n">
         <v>0.3817116859811755</v>
       </c>
-      <c r="K57" s="5" t="inlineStr"/>
+      <c r="K57" s="5" t="n">
+        <v>0.4193413322304849</v>
+      </c>
       <c r="L57" s="5" t="n">
         <v>0.4509551025217247</v>
       </c>
@@ -3337,7 +3551,9 @@
       <c r="O57" s="5" t="n">
         <v>0.3302159584828657</v>
       </c>
-      <c r="P57" s="5" t="inlineStr"/>
+      <c r="P57" s="5" t="n">
+        <v>0.3883965548378836</v>
+      </c>
       <c r="Q57" s="5" t="n">
         <v>0.3781356251749234</v>
       </c>
@@ -3350,7 +3566,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3363,7 +3579,7 @@
         <v>0.1920719116025359</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>0</v>
+        <v>0.1920736283533737</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>0.2216625124367437</v>
@@ -3378,7 +3594,7 @@
         <v>0.1745087554065301</v>
       </c>
       <c r="K58" s="5" t="n">
-        <v>0</v>
+        <v>0.196496127822935</v>
       </c>
       <c r="L58" s="5" t="n">
         <v>0.2028156972455612</v>
@@ -3393,7 +3609,7 @@
         <v>0.1831063663960389</v>
       </c>
       <c r="P58" s="5" t="n">
-        <v>0</v>
+        <v>0.1943321530028373</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>0.2122184854689653</v>
@@ -3415,7 +3631,9 @@
       <c r="E59" s="5" t="n">
         <v>0.1649928322884409</v>
       </c>
-      <c r="F59" s="5" t="inlineStr"/>
+      <c r="F59" s="5" t="n">
+        <v>0.1583928851521489</v>
+      </c>
       <c r="G59" s="5" t="n">
         <v>0.1801550565489055</v>
       </c>
@@ -3428,7 +3646,9 @@
       <c r="J59" s="5" t="n">
         <v>0.1521734547774681</v>
       </c>
-      <c r="K59" s="5" t="inlineStr"/>
+      <c r="K59" s="5" t="n">
+        <v>0.1696104137651927</v>
+      </c>
       <c r="L59" s="5" t="n">
         <v>0.1679549344499407</v>
       </c>
@@ -3441,7 +3661,9 @@
       <c r="O59" s="5" t="n">
         <v>0.1653886932236065</v>
       </c>
-      <c r="P59" s="5" t="inlineStr"/>
+      <c r="P59" s="5" t="n">
+        <v>0.1721854713302911</v>
+      </c>
       <c r="Q59" s="5" t="n">
         <v>0.1843317084866421</v>
       </c>
@@ -3462,7 +3684,9 @@
       <c r="E60" s="5" t="n">
         <v>0.2245868208265051</v>
       </c>
-      <c r="F60" s="5" t="inlineStr"/>
+      <c r="F60" s="5" t="n">
+        <v>0.2330511619851273</v>
+      </c>
       <c r="G60" s="5" t="n">
         <v>0.2931092510951324</v>
       </c>
@@ -3475,7 +3699,9 @@
       <c r="J60" s="5" t="n">
         <v>0.1978623969175288</v>
       </c>
-      <c r="K60" s="5" t="inlineStr"/>
+      <c r="K60" s="5" t="n">
+        <v>0.2257105848029577</v>
+      </c>
       <c r="L60" s="5" t="n">
         <v>0.2377343292905706</v>
       </c>
@@ -3488,7 +3714,9 @@
       <c r="O60" s="5" t="n">
         <v>0.2039580439419805</v>
       </c>
-      <c r="P60" s="5" t="inlineStr"/>
+      <c r="P60" s="5" t="n">
+        <v>0.2174368405264373</v>
+      </c>
       <c r="Q60" s="5" t="n">
         <v>0.2495722233274492</v>
       </c>
@@ -3497,7 +3725,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3510,7 +3738,7 @@
         <v>0.5800908518452514</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>0</v>
+        <v>0.5265854144413885</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>0.4850769323643962</v>
@@ -3525,7 +3753,7 @@
         <v>0.5667856788349058</v>
       </c>
       <c r="K61" s="5" t="n">
-        <v>0</v>
+        <v>0.5191666398066563</v>
       </c>
       <c r="L61" s="5" t="n">
         <v>0.5214242020813223</v>
@@ -3540,7 +3768,7 @@
         <v>0.5732988989198629</v>
       </c>
       <c r="P61" s="5" t="n">
-        <v>0</v>
+        <v>0.5227967231149833</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>0.5032903329803455</v>
@@ -3562,7 +3790,9 @@
       <c r="E62" s="5" t="n">
         <v>0.544285228537556</v>
       </c>
-      <c r="F62" s="5" t="inlineStr"/>
+      <c r="F62" s="5" t="n">
+        <v>0.4627034039089137</v>
+      </c>
       <c r="G62" s="5" t="n">
         <v>0.4178593748171374</v>
       </c>
@@ -3575,7 +3805,9 @@
       <c r="J62" s="5" t="n">
         <v>0.5383998385065496</v>
       </c>
-      <c r="K62" s="5" t="inlineStr"/>
+      <c r="K62" s="5" t="n">
+        <v>0.4811169996069747</v>
+      </c>
       <c r="L62" s="5" t="n">
         <v>0.4766515485050664</v>
       </c>
@@ -3588,7 +3820,9 @@
       <c r="O62" s="5" t="n">
         <v>0.5509693438383076</v>
       </c>
-      <c r="P62" s="5" t="inlineStr"/>
+      <c r="P62" s="5" t="n">
+        <v>0.4890025656038196</v>
+      </c>
       <c r="Q62" s="5" t="n">
         <v>0.4675502897709515</v>
       </c>
@@ -3609,7 +3843,9 @@
       <c r="E63" s="5" t="n">
         <v>0.6134674797540735</v>
       </c>
-      <c r="F63" s="5" t="inlineStr"/>
+      <c r="F63" s="5" t="n">
+        <v>0.572380014466002</v>
+      </c>
       <c r="G63" s="5" t="n">
         <v>0.537081024263267</v>
       </c>
@@ -3622,7 +3858,9 @@
       <c r="J63" s="5" t="n">
         <v>0.597709738740459</v>
       </c>
-      <c r="K63" s="5" t="inlineStr"/>
+      <c r="K63" s="5" t="n">
+        <v>0.5532887401854175</v>
+      </c>
       <c r="L63" s="5" t="n">
         <v>0.5631613365548042</v>
       </c>
@@ -3635,7 +3873,9 @@
       <c r="O63" s="5" t="n">
         <v>0.5960469888334877</v>
       </c>
-      <c r="P63" s="5" t="inlineStr"/>
+      <c r="P63" s="5" t="n">
+        <v>0.5530382818106353</v>
+      </c>
       <c r="Q63" s="5" t="n">
         <v>0.5383042308575229</v>
       </c>
@@ -3644,7 +3884,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
@@ -3657,7 +3897,7 @@
         <v>0.2278372365522126</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>0</v>
+        <v>0.2813409572052378</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>0.2932605551988601</v>
@@ -3672,7 +3912,7 @@
         <v>0.2587055657585642</v>
       </c>
       <c r="K64" s="5" t="n">
-        <v>0</v>
+        <v>0.2843372323704087</v>
       </c>
       <c r="L64" s="5" t="n">
         <v>0.2757601006731164</v>
@@ -3687,7 +3927,7 @@
         <v>0.2435947346840983</v>
       </c>
       <c r="P64" s="5" t="n">
-        <v>0</v>
+        <v>0.2828711238821793</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>0.2844911815506893</v>
@@ -3709,7 +3949,9 @@
       <c r="E65" s="5" t="n">
         <v>0.2004511052056294</v>
       </c>
-      <c r="F65" s="5" t="inlineStr"/>
+      <c r="F65" s="5" t="n">
+        <v>0.2357323033894483</v>
+      </c>
       <c r="G65" s="5" t="n">
         <v>0.246072955086547</v>
       </c>
@@ -3722,7 +3964,9 @@
       <c r="J65" s="5" t="n">
         <v>0.2338799103172038</v>
       </c>
-      <c r="K65" s="5" t="inlineStr"/>
+      <c r="K65" s="5" t="n">
+        <v>0.2539863811742457</v>
+      </c>
       <c r="L65" s="5" t="n">
         <v>0.2381033182452262</v>
       </c>
@@ -3735,7 +3979,9 @@
       <c r="O65" s="5" t="n">
         <v>0.2257577294420725</v>
       </c>
-      <c r="P65" s="5" t="inlineStr"/>
+      <c r="P65" s="5" t="n">
+        <v>0.2554337649223043</v>
+      </c>
       <c r="Q65" s="5" t="n">
         <v>0.2531546653605815</v>
       </c>
@@ -3756,7 +4002,9 @@
       <c r="E66" s="5" t="n">
         <v>0.2566675680507744</v>
       </c>
-      <c r="F66" s="5" t="inlineStr"/>
+      <c r="F66" s="5" t="n">
+        <v>0.3454772482014934</v>
+      </c>
       <c r="G66" s="5" t="n">
         <v>0.3506317835847806</v>
       </c>
@@ -3769,7 +4017,9 @@
       <c r="J66" s="5" t="n">
         <v>0.2869750249814382</v>
       </c>
-      <c r="K66" s="5" t="inlineStr"/>
+      <c r="K66" s="5" t="n">
+        <v>0.3249255139801464</v>
+      </c>
       <c r="L66" s="5" t="n">
         <v>0.3184063935280236</v>
       </c>
@@ -3782,7 +4032,9 @@
       <c r="O66" s="5" t="n">
         <v>0.2622277271283993</v>
       </c>
-      <c r="P66" s="5" t="inlineStr"/>
+      <c r="P66" s="5" t="n">
+        <v>0.3189233628233222</v>
+      </c>
       <c r="Q66" s="5" t="n">
         <v>0.3198236633591027</v>
       </c>
